--- a/Tools/Luban/Datas/_Beans.xlsx
+++ b/Tools/Luban/Datas/_Beans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\ShockStory\Tools\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188B5D5-EBF2-4F04-892D-21A63B680B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765F918-7033-4E0C-B327-3D41CCC5E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,25 +92,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dream Han Sans J W18"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HarmonyOS Sans SC Medium"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -122,22 +122,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -146,28 +157,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="浅灰" xfId="1" xr:uid="{E41EEA48-A1A8-402C-A00B-ADF3441D16A7}"/>
+    <cellStyle name="深灰" xfId="2" xr:uid="{7B4AF0A5-E3AB-47FD-B157-27B43F34CEBE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,103 +450,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="B4:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="34.21875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Tools/Luban/Datas/_Beans.xlsx
+++ b/Tools/Luban/Datas/_Beans.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765F918-7033-4E0C-B327-3D41CCC5E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8A0134-B9B3-466A-A485-76AA7CD82EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,38 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Items.ItemTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="B4:I14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -459,7 +491,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34.21875" style="1" customWidth="1"/>
     <col min="3" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
     <col min="8" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="11" width="13.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
@@ -543,6 +576,41 @@
       </c>
       <c r="J3" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
